--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Collectible.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Collectible.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">leaf</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.54</t>
+    <t xml:space="preserve">EA 23.55 fix 2</t>
   </si>
   <si>
     <t xml:space="preserve">junk</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Collectible.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Collectible.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">leaf</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.55 fix 2</t>
+    <t xml:space="preserve">EA 23.61 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">junk</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Collectible.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Collectible.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">leaf</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.61 fix 1</t>
+    <t xml:space="preserve">EA 23.66 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">junk</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Collectible.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Collectible.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">leaf</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.66 fix 1</t>
+    <t xml:space="preserve">EA 23.67</t>
   </si>
   <si>
     <t xml:space="preserve">junk</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Collectible.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Collectible.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">leaf</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.67</t>
+    <t xml:space="preserve">EA 23.74</t>
   </si>
   <si>
     <t xml:space="preserve">junk</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Collectible.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Collectible.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">leaf</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.74</t>
+    <t xml:space="preserve">EA 23.75 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">junk</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Collectible.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Collectible.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">leaf</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.75 fix 1</t>
+    <t xml:space="preserve">EA 23.81 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">junk</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Collectible.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Collectible.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">leaf</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.81 Patch 1</t>
+    <t xml:space="preserve">EA 23.92 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">junk</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Collectible.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Collectible.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">leaf</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.92 Patch 2</t>
+    <t xml:space="preserve">EA 23.99 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">junk</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Collectible.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Collectible.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">leaf</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.99 Patch 1</t>
+    <t xml:space="preserve">EA 23.108</t>
   </si>
   <si>
     <t xml:space="preserve">junk</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Collectible.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Collectible.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">leaf</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.108</t>
+    <t xml:space="preserve">EA 23.109 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">junk</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Collectible.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Collectible.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">leaf</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.109 Patch 2</t>
+    <t xml:space="preserve">EA 23.120</t>
   </si>
   <si>
     <t xml:space="preserve">junk</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Collectible.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Collectible.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">leaf</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.120</t>
+    <t xml:space="preserve">EA 23.129</t>
   </si>
   <si>
     <t xml:space="preserve">junk</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Collectible.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Collectible.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">leaf</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.129</t>
+    <t xml:space="preserve">EA 23.140</t>
   </si>
   <si>
     <t xml:space="preserve">junk</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Collectible.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Collectible.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">leaf</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.140</t>
+    <t xml:space="preserve">EA 23.152</t>
   </si>
   <si>
     <t xml:space="preserve">junk</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Collectible.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Collectible.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">leaf</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.152</t>
+    <t xml:space="preserve">EA 23.170</t>
   </si>
   <si>
     <t xml:space="preserve">junk</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Collectible.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Collectible.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">leaf</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.170</t>
+    <t xml:space="preserve">EA 23.173 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">junk</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Collectible.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Collectible.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">leaf</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.173 Patch 1</t>
+    <t xml:space="preserve">EA 23.187</t>
   </si>
   <si>
     <t xml:space="preserve">junk</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Collectible.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Collectible.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">leaf</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.187</t>
+    <t xml:space="preserve">EA 23.188 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">junk</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Collectible.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Collectible.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">leaf</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.188 Patch 2</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">junk</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Collectible.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Collectible.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">leaf</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.200</t>
+    <t xml:space="preserve">EA 23.209 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">junk</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Collectible.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Collectible.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">leaf</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.209 Patch 2</t>
+    <t xml:space="preserve">EA 23.212</t>
   </si>
   <si>
     <t xml:space="preserve">junk</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Collectible.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Collectible.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">leaf</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.212</t>
+    <t xml:space="preserve">EA 23.222</t>
   </si>
   <si>
     <t xml:space="preserve">junk</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Collectible.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Collectible.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">leaf</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.222</t>
+    <t xml:space="preserve">EA 23.229 Patch 3</t>
   </si>
   <si>
     <t xml:space="preserve">junk</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Collectible.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Collectible.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">leaf</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.229 Patch 3</t>
+    <t xml:space="preserve">EA 23.237 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">junk</t>
